--- a/dtpu_configurations/only_integer16/30mhz/mxu_14x14/power.xlsx
+++ b/dtpu_configurations/only_integer16/30mhz/mxu_14x14/power.xlsx
@@ -175,19 +175,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.015505343675613403</v>
+        <v>0.016736319288611412</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.007102473173290491</v>
+        <v>0.00830896571278572</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>0.004770265426486731</v>
+        <v>0.005099698901176453</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>0.0036862767301499844</v>
+        <v>0.00380017701536417</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>1.0013097198680043E-4</v>
+        <v>1.602680131327361E-4</v>
       </c>
       <c r="G2" t="n" s="4">
         <v>8.396653574891388E-4</v>
@@ -196,13 +196,13 @@
         <v>5.878788651898503E-4</v>
       </c>
       <c r="I2" t="n" s="4">
-        <v>1.2575920820236206</v>
+        <v>1.2575732469558716</v>
       </c>
       <c r="J2" t="n" s="4">
-        <v>0.12728846073150635</v>
+        <v>0.12731222808361053</v>
       </c>
       <c r="K2" t="n" s="4">
-        <v>1.4174766540527344</v>
+        <v>1.4204224348068237</v>
       </c>
     </row>
   </sheetData>
